--- a/PPT data/3 week/test/인원별 맞은개수 3rd.xlsx
+++ b/PPT data/3 week/test/인원별 맞은개수 3rd.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DeepLearning Study\발표자료\DeepLearningStudy\PPT data\3 week\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2018305008\Desktop\keras\DeepLearningStudy\PPT data\3 week\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED245905-B896-4B36-99C0-FF759C673368}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -171,7 +170,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -350,14 +349,14 @@
   <cellStyles count="10">
     <cellStyle name="20% - 강조색1" xfId="2" builtinId="30"/>
     <cellStyle name="메모" xfId="1" builtinId="10"/>
-    <cellStyle name="설명텍스트" xfId="7" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="설명텍스트" xfId="7"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="3" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="5" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="3"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="5"/>
     <cellStyle name="입력" xfId="6" builtinId="20"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="4" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="하이퍼링크" xfId="4"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -558,7 +557,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -567,7 +566,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -879,11 +878,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="T21" sqref="B2:T21"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -956,18 +955,126 @@
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1</v>
+      </c>
+      <c r="S2" s="2">
+        <v>1</v>
+      </c>
+      <c r="T2" s="2">
+        <v>1</v>
+      </c>
       <c r="U2" s="2">
         <f t="shared" ref="U2:U27" si="0">SUM(B2:T2)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="S3" s="2">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1</v>
+      </c>
       <c r="U3" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -992,18 +1099,126 @@
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="2">
+        <v>1</v>
+      </c>
+      <c r="T6" s="2">
+        <v>1</v>
+      </c>
       <c r="U6" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1</v>
+      </c>
+      <c r="S7" s="2">
+        <v>1</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
       <c r="U7" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -1192,7 +1407,7 @@
       </c>
       <c r="B28" s="4">
         <f t="shared" ref="B28:T28" si="1">SUM(B2:B27)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="1"/>
@@ -1200,76 +1415,76 @@
       </c>
       <c r="D28" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H28" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I28" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K28" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L28" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M28" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="N28" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O28" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P28" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q28" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R28" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="S28" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T28" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PPT data/3 week/test/인원별 맞은개수 3rd.xlsx
+++ b/PPT data/3 week/test/인원별 맞은개수 3rd.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2018305008\Desktop\keras\DeepLearningStudy\PPT data\3 week\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2015305023\Desktop\딥러닝 스터디\DeepLearningStudy\PPT data\3 week\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -882,7 +882,7 @@
   <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1081,18 +1081,126 @@
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1</v>
+      </c>
       <c r="U4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1</v>
+      </c>
+      <c r="S5" s="2">
+        <v>1</v>
+      </c>
+      <c r="T5" s="2">
+        <v>1</v>
+      </c>
       <c r="U5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -1407,79 +1515,79 @@
       </c>
       <c r="B28" s="4">
         <f t="shared" ref="B28:T28" si="1">SUM(B2:B27)</f>
+        <v>4.5</v>
+      </c>
+      <c r="C28" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-      <c r="C28" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="4">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
       <c r="E28" s="4">
         <f t="shared" si="1"/>
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I28" s="4">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G28" s="4">
+      <c r="K28" s="4">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-      <c r="H28" s="4">
+      <c r="L28" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="M28" s="4">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="N28" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O28" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P28" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I28" s="4">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="J28" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="K28" s="4">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="L28" s="4">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="M28" s="4">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="N28" s="4">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="O28" s="4">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="P28" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
       <c r="Q28" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R28" s="4">
         <f t="shared" si="1"/>
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="S28" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T28" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/PPT data/3 week/test/인원별 맞은개수 3rd.xlsx
+++ b/PPT data/3 week/test/인원별 맞은개수 3rd.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2015305023\Desktop\딥러닝 스터디\DeepLearningStudy\PPT data\3 week\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이용준\Desktop\deep\Deep\DeepLearningStudy\PPT data\3 week\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8256EA8F-DED7-4E54-AA1A-A3C70B7DB671}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -170,7 +171,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -349,14 +350,14 @@
   <cellStyles count="10">
     <cellStyle name="20% - 강조색1" xfId="2" builtinId="30"/>
     <cellStyle name="메모" xfId="1" builtinId="10"/>
-    <cellStyle name="설명텍스트" xfId="7"/>
+    <cellStyle name="설명텍스트" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="3"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="5"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="입력" xfId="6" builtinId="20"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="4"/>
+    <cellStyle name="하이퍼링크" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -557,7 +558,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -566,7 +567,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" count="7">
+    <tableStyle name="Light Style 1 - Accent 1" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -878,20 +879,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="9" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>36</v>
@@ -951,7 +952,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1014,7 +1015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1077,7 +1078,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1140,7 +1141,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -1203,7 +1204,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1266,7 +1267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1329,7 +1330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1338,7 +1339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1347,7 +1348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1356,7 +1357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1365,7 +1366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1374,7 +1375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1383,7 +1384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,7 +1393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1401,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -1410,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -1419,7 +1420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1428,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -1437,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
@@ -1446,7 +1447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -1455,7 +1456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -1464,7 +1465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
@@ -1473,25 +1474,133 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N24" s="2">
+        <v>1</v>
+      </c>
+      <c r="O24" s="2">
+        <v>1</v>
+      </c>
+      <c r="P24" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>1</v>
+      </c>
+      <c r="R24" s="2">
+        <v>1</v>
+      </c>
+      <c r="S24" s="2">
+        <v>0</v>
+      </c>
+      <c r="T24" s="2">
+        <v>1</v>
+      </c>
       <c r="U24" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1</v>
+      </c>
+      <c r="N25" s="2">
+        <v>1</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>1</v>
+      </c>
+      <c r="R25" s="2">
+        <v>1</v>
+      </c>
+      <c r="S25" s="2">
+        <v>1</v>
+      </c>
+      <c r="T25" s="2">
+        <v>1</v>
+      </c>
       <c r="U25" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1500,7 +1609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -1509,13 +1618,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" ref="B28:T28" si="1">SUM(B2:B27)</f>
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="1"/>
@@ -1523,23 +1632,23 @@
       </c>
       <c r="D28" s="4">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" si="1"/>
-        <v>5.2</v>
+        <v>7.2</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="H28" s="4">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I28" s="4">
         <f t="shared" si="1"/>
@@ -1547,47 +1656,47 @@
       </c>
       <c r="J28" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K28" s="4">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L28" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M28" s="4">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="N28" s="4">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O28" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P28" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q28" s="4">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R28" s="4">
         <f t="shared" si="1"/>
-        <v>4.3</v>
+        <v>6.3</v>
       </c>
       <c r="S28" s="4">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T28" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
